--- a/nmt/stats/nmt_score.xlsx
+++ b/nmt/stats/nmt_score.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t xml:space="preserve">Scoring File Name</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t xml:space="preserve">Nmt_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nmt_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_186k+case</t>
   </si>
 </sst>
 </file>
@@ -269,13 +275,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.72"/>
@@ -427,6 +433,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/nmt/stats/nmt_score.xlsx
+++ b/nmt/stats/nmt_score.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t xml:space="preserve">Scoring File Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
     <t xml:space="preserve">Training data</t>
   </si>
   <si>
@@ -34,7 +37,7 @@
     <t xml:space="preserve">Scoring</t>
   </si>
   <si>
-    <t xml:space="preserve">Bicleaner 10%</t>
+    <t xml:space="preserve">Bicleaner</t>
   </si>
   <si>
     <t xml:space="preserve">Viewer</t>
@@ -43,6 +46,9 @@
     <t xml:space="preserve">nmt_1</t>
   </si>
   <si>
+    <t xml:space="preserve">Ab-ru</t>
+  </si>
+  <si>
     <t xml:space="preserve">Base</t>
   </si>
   <si>
@@ -79,12 +85,15 @@
     <t xml:space="preserve">m_20_100_1.1m</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
+    <t xml:space="preserve">yes, took the highest score of 10% population</t>
   </si>
   <si>
     <t xml:space="preserve">Nmt_5</t>
   </si>
   <si>
+    <t xml:space="preserve">Ru-ab</t>
+  </si>
+  <si>
     <t xml:space="preserve">Destan 1</t>
   </si>
   <si>
@@ -95,12 +104,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nmt_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nmt_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_186k+case</t>
   </si>
 </sst>
 </file>
@@ -275,173 +278,186 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6" t="n">
         <v>0.51</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="6" t="n">
         <v>0.52</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>10</v>
+      <c r="G6" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="n">
         <v>0.86</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>10</v>
+      <c r="G7" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6" t="n">
         <v>0.85</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>18</v>
+      <c r="G8" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/nmt/stats/nmt_score.xlsx
+++ b/nmt/stats/nmt_score.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t xml:space="preserve">Scoring File Name</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t xml:space="preserve">Nmt_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nmt_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, 0.5 &gt;= score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nmt_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, 0.5 &lt; score</t>
   </si>
 </sst>
 </file>
@@ -278,13 +290,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.72"/>
@@ -460,6 +472,40 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/nmt/stats/nmt_score.xlsx
+++ b/nmt/stats/nmt_score.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t xml:space="preserve">Scoring File Name</t>
   </si>
@@ -293,10 +293,10 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.72"/>
@@ -485,8 +485,14 @@
       <c r="D9" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="E9" s="6" t="n">
+        <v>0.54</v>
+      </c>
       <c r="F9" s="0" t="s">
         <v>29</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
